--- a/stl/prev_excel/results_filter_gap_excel_0_17.xlsx
+++ b/stl/prev_excel/results_filter_gap_excel_0_17.xlsx
@@ -38,7 +38,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00699105"/>
+        <fgColor rgb="00731398"/>
       </patternFill>
     </fill>
   </fills>
